--- a/Manufacturing_PCBA/BOM_PartType-Vibrotactile BCI shield.xlsx
+++ b/Manufacturing_PCBA/BOM_PartType-Vibrotactile BCI shield.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\kicad_vibrotactile_BCI_shield\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\kicad_vibrotactile_BCI_shield\Manufacturing_PCBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D05C47C3-D0BC-48F3-BC09-ED19F46DE784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C0DBE9-3C29-4CD1-8FEE-13C1417CE580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Vibrotactile BCI s" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Designator</t>
   </si>
@@ -122,12 +122,24 @@
   </si>
   <si>
     <t>https://octopart.com/search?q=BS170&amp;currency=USD&amp;specs=0</t>
+  </si>
+  <si>
+    <t>alternative 1</t>
+  </si>
+  <si>
+    <t>alternative 2</t>
+  </si>
+  <si>
+    <t>M20-9990845</t>
+  </si>
+  <si>
+    <t>22-28-4081</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -961,21 +973,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="68.7265625" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="89.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -994,8 +1009,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1014,8 +1035,14 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1035,7 +1062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1055,7 +1082,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1075,7 +1102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1095,7 +1122,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>

--- a/Manufacturing_PCBA/BOM_PartType-Vibrotactile BCI shield.xlsx
+++ b/Manufacturing_PCBA/BOM_PartType-Vibrotactile BCI shield.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\kicad_vibrotactile_BCI_shield\Manufacturing_PCBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C0DBE9-3C29-4CD1-8FEE-13C1417CE580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413A89FD-5FBB-4304-8153-638A66244224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Designator</t>
   </si>
@@ -134,6 +134,27 @@
   </si>
   <si>
     <t>22-28-4081</t>
+  </si>
+  <si>
+    <t>Farnell URL</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/buchanan-te-connectivity/282834-2/terminal-block-pcb-30-16awg-2/dp/2112482?st=282834-2</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/kingbright/l-1334gt/reflecteur-led-3mm-green/dp/2001636</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/molex/22-28-4081/conn-header-8-voies-1-rangee-2/dp/3049535?ost=22-28-4081</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/te-connectivity/lr1f150r/resistance-metal-150r-0-6w-1/dp/2330020?ost=lr1f150r</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/te-connectivity/lr1f24r/resistance-metal-24r-0-6w-1/dp/2330078?ost=lr1f24r</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/microchip/vn2106n3-g/d-mosfet-canal-n-0-3a-60v-to-92/dp/2851591</t>
   </si>
 </sst>
 </file>
@@ -974,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +1011,7 @@
     <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1010,13 +1031,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1036,13 +1060,16 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
         <v>37</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1061,8 +1088,11 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1081,8 +1111,11 @@
       <c r="F5" t="s">
         <v>33</v>
       </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1101,8 +1134,11 @@
       <c r="F6" t="s">
         <v>30</v>
       </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1121,8 +1157,11 @@
       <c r="F7" t="s">
         <v>31</v>
       </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1140,6 +1179,9 @@
       </c>
       <c r="F8" t="s">
         <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
